--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Code/github.com/knicklabs/oaddrsig2021/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962B3538-CD41-5B4C-8BC7-4ED75BBD4DBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844FF14D-76F8-0C4C-8804-8A6BA9D97B13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17780" yWindow="9240" windowWidth="33600" windowHeight="18720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17780" yWindow="9240" windowWidth="33600" windowHeight="18720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Poster Presentations" sheetId="3" r:id="rId1"/>
@@ -319,9 +319,6 @@
     <t>View the poster submissions from 2021</t>
   </si>
   <si>
-    <t>Research Special Interest Group O.A.D.D. Logo</t>
-  </si>
-  <si>
     <t>Lorem ipsum dolor sit amet consectetur adipisicing elit. Nemo expedita voluptas culpa sapiente alias molestiae.</t>
   </si>
   <si>
@@ -341,6 +338,9 @@
   </si>
   <si>
     <t>msmissy@example.com</t>
+  </si>
+  <si>
+    <t>2021 RSIG Research Day</t>
   </si>
 </sst>
 </file>
@@ -2324,13 +2324,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B98623-7752-FA41-B92F-BADDA6E7A4F1}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="92.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2351,10 +2351,10 @@
         <v>79</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>83</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -2370,13 +2370,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>85</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2388,7 +2388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7716EC5B-4EED-764B-94DB-B69C01719BFB}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2404,10 +2404,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>87</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -2415,10 +2415,10 @@
         <v>57</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>89</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Code/github.com/knicklabs/oaddrsig2021/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844FF14D-76F8-0C4C-8804-8A6BA9D97B13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBE38EA-14A9-3B41-B435-C016E24FB120}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17780" yWindow="9240" windowWidth="33600" windowHeight="18720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Poster Presentations" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="94">
   <si>
     <t>Title</t>
   </si>
@@ -341,6 +341,15 @@
   </si>
   <si>
     <t>2021 RSIG Research Day</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Carrier_Perry-Prevalance_of_Anxiety_Symptoms_in_Youth_with_ASD</t>
   </si>
 </sst>
 </file>
@@ -717,84 +726,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:X994"/>
+  <dimension ref="A1:Y994"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="60.1640625" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="67.5" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="24" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="60.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="67.5" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="25" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:25" ht="30" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="11" t="s">
+        <v>93</v>
+      </c>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
@@ -807,38 +826,43 @@
       <c r="V2" s="11"/>
       <c r="W2" s="11"/>
       <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
     </row>
-    <row r="3" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>9</v>
-      </c>
       <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="11" t="s">
+        <v>93</v>
+      </c>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
@@ -851,38 +875,43 @@
       <c r="V3" s="11"/>
       <c r="W3" s="11"/>
       <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
     </row>
-    <row r="4" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>9</v>
-      </c>
       <c r="E4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="11" t="s">
+        <v>93</v>
+      </c>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
@@ -895,38 +924,43 @@
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
     </row>
-    <row r="5" spans="1:24" ht="45" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:25" ht="45" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>9</v>
-      </c>
       <c r="E5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="11" t="s">
+        <v>93</v>
+      </c>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
@@ -939,38 +973,43 @@
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
     </row>
-    <row r="6" spans="1:24" ht="31" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:25" ht="31" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="D6" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>9</v>
-      </c>
       <c r="E6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="11" t="s">
+        <v>93</v>
+      </c>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
@@ -983,38 +1022,43 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
     </row>
-    <row r="7" spans="1:24" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="H7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="7"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="L7" s="11" t="s">
+        <v>93</v>
+      </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
@@ -1027,38 +1071,43 @@
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
     </row>
-    <row r="8" spans="1:24" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>9</v>
-      </c>
       <c r="E8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="H8" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="L8" s="11" t="s">
+        <v>93</v>
+      </c>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1071,38 +1120,43 @@
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
     </row>
-    <row r="9" spans="1:24" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="C9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="D9" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>9</v>
-      </c>
       <c r="E9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="H9" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="7"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+      <c r="L9" s="11" t="s">
+        <v>93</v>
+      </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1115,38 +1169,43 @@
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
     </row>
-    <row r="10" spans="1:24" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:25" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>9</v>
-      </c>
       <c r="E10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="H10" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="7"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="L10" s="11" t="s">
+        <v>93</v>
+      </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1159,38 +1218,43 @@
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
     </row>
-    <row r="11" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="D11" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>9</v>
-      </c>
       <c r="E11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="H11" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
+      <c r="L11" s="11" t="s">
+        <v>93</v>
+      </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1203,38 +1267,43 @@
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
     </row>
-    <row r="12" spans="1:24" ht="45" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:25" ht="45" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>9</v>
-      </c>
       <c r="E12" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="11" t="s">
+        <v>93</v>
+      </c>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
@@ -1247,38 +1316,43 @@
       <c r="V12" s="11"/>
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
     </row>
-    <row r="13" spans="1:24" ht="60" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:25" ht="60" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="C13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="D13" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>9</v>
-      </c>
       <c r="E13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="G13" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="H13" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="L13" s="11" t="s">
+        <v>93</v>
+      </c>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -1291,36 +1365,41 @@
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
     </row>
-    <row r="14" spans="1:24" ht="45" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:25" ht="45" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="C14" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="D14" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>9</v>
-      </c>
       <c r="E14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="12" t="s">
+      <c r="F14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
+      <c r="L14" s="11" t="s">
+        <v>93</v>
+      </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1333,9 +1412,10 @@
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
     </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2324,7 +2404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B98623-7752-FA41-B92F-BADDA6E7A4F1}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -2386,44 +2466,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7716EC5B-4EED-764B-94DB-B69C01719BFB}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="D2" s="22" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{4D70AA94-D9EA-1E4E-BD8D-97E41B982002}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{4D70AA94-D9EA-1E4E-BD8D-97E41B982002}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Code/github.com/knicklabs/oaddrsig2021/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBE38EA-14A9-3B41-B435-C016E24FB120}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FD1534-7197-CC4E-98B8-CBEA417308EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,7 +349,7 @@
     <t>File</t>
   </si>
   <si>
-    <t>Carrier_Perry-Prevalance_of_Anxiety_Symptoms_in_Youth_with_ASD</t>
+    <t>Carrier_Perry-Prevalance_of_Anxiety_Symptoms_in_Youth_with_ASD.pdf</t>
   </si>
 </sst>
 </file>
@@ -458,7 +458,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -510,6 +510,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -728,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y994"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -811,7 +812,7 @@
         <v>16</v>
       </c>
       <c r="K2" s="7"/>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="23" t="s">
         <v>93</v>
       </c>
       <c r="M2" s="11"/>
@@ -860,7 +861,7 @@
         <v>21</v>
       </c>
       <c r="K3" s="7"/>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="23" t="s">
         <v>93</v>
       </c>
       <c r="M3" s="11"/>
@@ -909,7 +910,7 @@
         <v>21</v>
       </c>
       <c r="K4" s="7"/>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="23" t="s">
         <v>93</v>
       </c>
       <c r="M4" s="11"/>
@@ -958,7 +959,7 @@
         <v>36</v>
       </c>
       <c r="K5" s="7"/>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="23" t="s">
         <v>93</v>
       </c>
       <c r="M5" s="11"/>
@@ -1007,7 +1008,7 @@
         <v>42</v>
       </c>
       <c r="K6" s="7"/>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="23" t="s">
         <v>93</v>
       </c>
       <c r="M6" s="11"/>
@@ -1056,7 +1057,7 @@
         <v>42</v>
       </c>
       <c r="K7" s="7"/>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="23" t="s">
         <v>93</v>
       </c>
       <c r="M7" s="7"/>
@@ -1105,7 +1106,7 @@
         <v>42</v>
       </c>
       <c r="K8" s="7"/>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="23" t="s">
         <v>93</v>
       </c>
       <c r="M8" s="7"/>
@@ -1154,7 +1155,7 @@
         <v>42</v>
       </c>
       <c r="K9" s="7"/>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="23" t="s">
         <v>93</v>
       </c>
       <c r="M9" s="7"/>
@@ -1203,7 +1204,7 @@
         <v>42</v>
       </c>
       <c r="K10" s="7"/>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="23" t="s">
         <v>93</v>
       </c>
       <c r="M10" s="7"/>
@@ -1252,7 +1253,7 @@
         <v>69</v>
       </c>
       <c r="K11" s="7"/>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="23" t="s">
         <v>93</v>
       </c>
       <c r="M11" s="7"/>
@@ -1301,7 +1302,7 @@
         <v>21</v>
       </c>
       <c r="K12" s="7"/>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="23" t="s">
         <v>93</v>
       </c>
       <c r="M12" s="11"/>
@@ -1350,7 +1351,7 @@
         <v>68</v>
       </c>
       <c r="K13" s="7"/>
-      <c r="L13" s="11" t="s">
+      <c r="L13" s="23" t="s">
         <v>93</v>
       </c>
       <c r="M13" s="7"/>
@@ -1397,7 +1398,7 @@
         <v>69</v>
       </c>
       <c r="K14" s="7"/>
-      <c r="L14" s="11" t="s">
+      <c r="L14" s="23" t="s">
         <v>93</v>
       </c>
       <c r="M14" s="7"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Code/github.com/knicklabs/oaddrsig2021/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FD1534-7197-CC4E-98B8-CBEA417308EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868A5518-4C96-504E-B69F-63DFC297080F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Poster Presentations" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="96">
   <si>
     <t>Title</t>
   </si>
@@ -350,6 +350,12 @@
   </si>
   <si>
     <t>Carrier_Perry-Prevalance_of_Anxiety_Symptoms_in_Youth_with_ASD.pdf</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://www.brocku.ca</t>
   </si>
 </sst>
 </file>
@@ -458,7 +464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -511,6 +517,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -729,7 +736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -2406,7 +2413,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2467,10 +2474,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7716EC5B-4EED-764B-94DB-B69C01719BFB}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2480,7 +2487,7 @@
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="21" t="s">
         <v>91</v>
       </c>
@@ -2493,8 +2500,11 @@
       <c r="D1" s="21" t="s">
         <v>87</v>
       </c>
+      <c r="E1" s="21" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2506,11 +2516,15 @@
       </c>
       <c r="D2" s="22" t="s">
         <v>89</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{4D70AA94-D9EA-1E4E-BD8D-97E41B982002}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{0FFAA782-0E1C-0A43-BCB5-C5AC91680982}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Code/github.com/knicklabs/oaddrsig2021/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC99297-B7C0-5A41-8BD5-3561E8B7F793}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB13ADB-ACAE-2741-B6CF-FF47E73B37F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="33600" windowHeight="18780" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Submissions" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="242">
   <si>
     <t>RSIG Abstract Submission Tracking 2021</t>
   </si>
@@ -834,6 +834,12 @@
   </si>
   <si>
     <t>Western_Poster.pdf</t>
+  </si>
+  <si>
+    <t>Brock_Poster.pdf</t>
+  </si>
+  <si>
+    <t>Minott_Poster.pdf</t>
   </si>
 </sst>
 </file>
@@ -962,7 +968,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1110,6 +1116,7 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -16436,8 +16443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AC992"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16546,7 +16553,9 @@
         <v>36</v>
       </c>
       <c r="O2" s="38"/>
-      <c r="P2" s="24"/>
+      <c r="P2" s="24" t="s">
+        <v>241</v>
+      </c>
       <c r="Q2" s="24"/>
       <c r="R2" s="24"/>
       <c r="S2" s="24"/>
@@ -18170,8 +18179,8 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18211,6 +18220,9 @@
       </c>
       <c r="E2" s="45" t="s">
         <v>143</v>
+      </c>
+      <c r="F2" s="61" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Code/github.com/knicklabs/oaddrsig2021/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB13ADB-ACAE-2741-B6CF-FF47E73B37F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A414ACF-EA87-054C-9902-401406A903A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22640" yWindow="2440" windowWidth="33600" windowHeight="18780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Submissions" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="243">
   <si>
     <t>RSIG Abstract Submission Tracking 2021</t>
   </si>
@@ -840,6 +840,9 @@
   </si>
   <si>
     <t>Minott_Poster.pdf</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -968,7 +971,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1117,6 +1120,10 @@
     <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -16443,8 +16450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AC992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16456,7 +16463,7 @@
     <col min="5" max="5" width="13.1640625" customWidth="1"/>
     <col min="6" max="6" width="60.1640625" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="63" customWidth="1"/>
     <col min="9" max="10" width="9.33203125" customWidth="1"/>
     <col min="11" max="11" width="67.5" customWidth="1"/>
     <col min="12" max="12" width="13.5" customWidth="1"/>
@@ -16468,7 +16475,7 @@
         <v>122</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>4</v>
+        <v>242</v>
       </c>
       <c r="C1" s="32" t="s">
         <v>123</v>
@@ -16483,7 +16490,7 @@
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="62" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -16531,7 +16538,7 @@
       <c r="G2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="44" t="s">
         <v>39</v>
       </c>
       <c r="I2" s="21" t="s">
@@ -16592,7 +16599,7 @@
       <c r="G3" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="44" t="s">
         <v>44</v>
       </c>
       <c r="I3" s="21" t="s">
@@ -16655,7 +16662,7 @@
       <c r="G4" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="44" t="s">
         <v>49</v>
       </c>
       <c r="I4" s="21" t="s">
@@ -17084,7 +17091,7 @@
       <c r="G11" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="44" t="s">
         <v>34</v>
       </c>
       <c r="I11" s="21" t="s">
